--- a/RUDN/Importance/Varible_f_reg_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Northern America.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>F-value</t>
   </si>
@@ -22,6 +22,15 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
@@ -31,69 +40,93 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
   </si>
   <si>
     <t>Male population 55-59</t>
   </si>
   <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
@@ -103,9 +136,6 @@
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
     <t>Male population 60-64</t>
   </si>
   <si>
@@ -118,87 +148,99 @@
     <t>Male population 50-54</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
     <t>Female population 50-54</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Male population 75-79</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
   </si>
   <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
+    <t>Female population 00-04</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 02, male, interpolated</t>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
@@ -208,67 +250,79 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
     <t>Female population 75-79</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
+    <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
@@ -277,490 +331,640 @@
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
   </si>
   <si>
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
   </si>
   <si>
     <t>Male population 35-39</t>
   </si>
   <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
@@ -769,244 +973,94 @@
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
     <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
   </si>
   <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1383,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>273.9075880516362</v>
+        <v>649.1970061652304</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1394,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>273.9004365748227</v>
+        <v>649.1970061652304</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1405,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>273.9004365748222</v>
+        <v>644.4581749029046</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1416,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>273.2390895859594</v>
+        <v>644.186002129574</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1427,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>201.0746949032368</v>
+        <v>644.1460016640775</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1438,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>80.99119633482104</v>
+        <v>644.1460016640719</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1449,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>55.52228794381558</v>
+        <v>643.5398898241909</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1460,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>40.13383413855362</v>
+        <v>640.4589478561547</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1471,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>31.75336203048207</v>
+        <v>587.4474713451308</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1482,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>28.37868237566738</v>
+        <v>417.6414785695417</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1493,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>25.68341615961713</v>
+        <v>392.8148154115541</v>
       </c>
       <c r="C12">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1504,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>25.66626338241042</v>
+        <v>392.8148154115541</v>
       </c>
       <c r="C13">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1515,10 +1569,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>25.66614030197595</v>
+        <v>254.419078773372</v>
       </c>
       <c r="C14">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1526,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>25.61390840727232</v>
+        <v>218.3800365560635</v>
       </c>
       <c r="C15">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1537,10 +1591,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>24.72784376203427</v>
+        <v>218.0557775300199</v>
       </c>
       <c r="C16">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1548,10 +1602,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>24.70009121155283</v>
+        <v>217.39408649402</v>
       </c>
       <c r="C17">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1559,10 +1613,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>24.67057394723358</v>
+        <v>217.2577952539181</v>
       </c>
       <c r="C18">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1570,10 +1624,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>24.56773709032232</v>
+        <v>216.0283399525983</v>
       </c>
       <c r="C19">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1581,10 +1635,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24.54405612212176</v>
+        <v>187.397949394996</v>
       </c>
       <c r="C20">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1592,10 +1646,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22.83791951980453</v>
+        <v>169.1952622832501</v>
       </c>
       <c r="C21">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1603,10 +1657,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>22.83791951980453</v>
+        <v>127.3501906688383</v>
       </c>
       <c r="C22">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1614,10 +1668,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>22.36980912277362</v>
+        <v>126.9466040044519</v>
       </c>
       <c r="C23">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1625,10 +1679,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>20.7400220691255</v>
+        <v>126.5159083540333</v>
       </c>
       <c r="C24">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1636,10 +1690,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>20.7336212133479</v>
+        <v>124.6532229572857</v>
       </c>
       <c r="C25">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1647,10 +1701,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>20.7332381099724</v>
+        <v>124.6532229572857</v>
       </c>
       <c r="C26">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1658,10 +1712,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>20.72689234393263</v>
+        <v>124.2557457729229</v>
       </c>
       <c r="C27">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1669,10 +1723,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20.72429189490111</v>
+        <v>124.2535390719747</v>
       </c>
       <c r="C28">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1680,10 +1734,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>20.72029770264832</v>
+        <v>123.8868533056253</v>
       </c>
       <c r="C29">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1691,10 +1745,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>20.71957599333392</v>
+        <v>54.21196866260145</v>
       </c>
       <c r="C30">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1702,10 +1756,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20.71920545666561</v>
+        <v>51.89322796427631</v>
       </c>
       <c r="C31">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1713,10 +1767,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>20.70532007208758</v>
+        <v>50.17792138069027</v>
       </c>
       <c r="C32">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1724,10 +1778,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>20.66048597571906</v>
+        <v>29.20344629416615</v>
       </c>
       <c r="C33">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1735,10 +1789,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>20.62930073721012</v>
+        <v>19.23512242167748</v>
       </c>
       <c r="C34">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1746,10 +1800,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>20.61587826720572</v>
+        <v>19.23414765995046</v>
       </c>
       <c r="C35">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1757,10 +1811,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>20.61361350871937</v>
+        <v>19.23214696143032</v>
       </c>
       <c r="C36">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1768,10 +1822,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>20.60497658192552</v>
+        <v>19.225142579987</v>
       </c>
       <c r="C37">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1779,10 +1833,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>20.58476835255747</v>
+        <v>19.22139473557932</v>
       </c>
       <c r="C38">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1790,10 +1844,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20.55393232977913</v>
+        <v>19.21976228013523</v>
       </c>
       <c r="C39">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1801,10 +1855,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>20.53791481797055</v>
+        <v>19.20907663901104</v>
       </c>
       <c r="C40">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1812,10 +1866,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>20.5373910224502</v>
+        <v>19.20765620688879</v>
       </c>
       <c r="C41">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1823,10 +1877,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>20.53287484463013</v>
+        <v>19.20316791550416</v>
       </c>
       <c r="C42">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1834,10 +1888,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>20.528983854618</v>
+        <v>19.18568360566415</v>
       </c>
       <c r="C43">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1845,10 +1899,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>20.51616078101664</v>
+        <v>19.18224719390598</v>
       </c>
       <c r="C44">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1856,10 +1910,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>20.51236406970164</v>
+        <v>19.18224719390598</v>
       </c>
       <c r="C45">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1867,10 +1921,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>20.49976255651385</v>
+        <v>19.15459907792328</v>
       </c>
       <c r="C46">
-        <v>5e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1878,10 +1932,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>20.49966087887135</v>
+        <v>19.14997073548819</v>
       </c>
       <c r="C47">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1889,10 +1943,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>20.48795659523667</v>
+        <v>19.14218184881731</v>
       </c>
       <c r="C48">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1900,10 +1954,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>20.48148172743553</v>
+        <v>19.1223562207067</v>
       </c>
       <c r="C49">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1911,10 +1965,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>20.48082461393793</v>
+        <v>19.08519790474909</v>
       </c>
       <c r="C50">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1922,10 +1976,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>20.47782496576197</v>
+        <v>19.08367228225777</v>
       </c>
       <c r="C51">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1933,10 +1987,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>20.4775725077562</v>
+        <v>19.08314453811232</v>
       </c>
       <c r="C52">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1944,10 +1998,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>20.47740259788839</v>
+        <v>19.06993395412773</v>
       </c>
       <c r="C53">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1955,10 +2009,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>20.47728599465298</v>
+        <v>19.06701840020697</v>
       </c>
       <c r="C54">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1966,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>20.47725486554116</v>
+        <v>19.05803538349539</v>
       </c>
       <c r="C55">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1977,10 +2031,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>20.47375092092522</v>
+        <v>19.05098690814237</v>
       </c>
       <c r="C56">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1988,10 +2042,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>20.46942349435117</v>
+        <v>19.04481052106312</v>
       </c>
       <c r="C57">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1999,10 +2053,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>20.46630324834871</v>
+        <v>19.04129292465234</v>
       </c>
       <c r="C58">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2010,10 +2064,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>20.46191944934439</v>
+        <v>19.03249351402604</v>
       </c>
       <c r="C59">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2021,10 +2075,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>20.4590900288907</v>
+        <v>19.01993817908138</v>
       </c>
       <c r="C60">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2032,10 +2086,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>20.457278785254</v>
+        <v>19.01768533733652</v>
       </c>
       <c r="C61">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2043,10 +2097,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>20.44896047571719</v>
+        <v>19.01673004882881</v>
       </c>
       <c r="C62">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2054,10 +2108,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>20.43791542349324</v>
+        <v>19.01510480459128</v>
       </c>
       <c r="C63">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2065,10 +2119,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>20.43293426269836</v>
+        <v>19.01509547554964</v>
       </c>
       <c r="C64">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2076,10 +2130,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>20.4320843685574</v>
+        <v>19.01206988476793</v>
       </c>
       <c r="C65">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2087,10 +2141,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>20.42961858634841</v>
+        <v>19.00552729740509</v>
       </c>
       <c r="C66">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2098,10 +2152,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>20.42861225531845</v>
+        <v>18.99999879494854</v>
       </c>
       <c r="C67">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2109,10 +2163,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>20.42805092001123</v>
+        <v>18.99773251745732</v>
       </c>
       <c r="C68">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2120,10 +2174,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>20.42336394474959</v>
+        <v>18.996668394051</v>
       </c>
       <c r="C69">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2131,10 +2185,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>20.40636947556495</v>
+        <v>18.99632244250636</v>
       </c>
       <c r="C70">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2142,10 +2196,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>20.40615264408494</v>
+        <v>18.99533143796171</v>
       </c>
       <c r="C71">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2153,10 +2207,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>20.38477432092198</v>
+        <v>18.99466024470032</v>
       </c>
       <c r="C72">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2164,10 +2218,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>20.3796893691204</v>
+        <v>18.99157237455988</v>
       </c>
       <c r="C73">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2175,10 +2229,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>20.3782839574488</v>
+        <v>18.98678153219949</v>
       </c>
       <c r="C74">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2186,10 +2240,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>20.37575818171197</v>
+        <v>18.98218505917362</v>
       </c>
       <c r="C75">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2197,10 +2251,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>20.37253053216102</v>
+        <v>18.98069592339953</v>
       </c>
       <c r="C76">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2208,10 +2262,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>20.37176430837242</v>
+        <v>18.97618941536811</v>
       </c>
       <c r="C77">
-        <v>5e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2219,10 +2273,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>20.34260796612463</v>
+        <v>18.97404889464939</v>
       </c>
       <c r="C78">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2230,10 +2284,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>20.32098194628199</v>
+        <v>18.97401892411732</v>
       </c>
       <c r="C79">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2241,10 +2295,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>20.31605251383813</v>
+        <v>18.97315328414336</v>
       </c>
       <c r="C80">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2252,10 +2306,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>20.27990075156498</v>
+        <v>18.97063966399667</v>
       </c>
       <c r="C81">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2263,10 +2317,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>20.27926261482222</v>
+        <v>18.96588400828873</v>
       </c>
       <c r="C82">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2274,10 +2328,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>20.26053989418827</v>
+        <v>18.96194902382378</v>
       </c>
       <c r="C83">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2285,10 +2339,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>20.2570376393672</v>
+        <v>18.96080222162731</v>
       </c>
       <c r="C84">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2296,10 +2350,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>20.23152068283892</v>
+        <v>18.95934152415783</v>
       </c>
       <c r="C85">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2307,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>20.22537430221762</v>
+        <v>18.93637324989773</v>
       </c>
       <c r="C86">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2318,10 +2372,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>20.21196385833668</v>
+        <v>18.93463855788461</v>
       </c>
       <c r="C87">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2329,10 +2383,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>20.20637037295991</v>
+        <v>18.92927608393556</v>
       </c>
       <c r="C88">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2340,10 +2394,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>20.19782363250809</v>
+        <v>18.92389225212743</v>
       </c>
       <c r="C89">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2351,10 +2405,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>20.06322956745017</v>
+        <v>18.9210250007219</v>
       </c>
       <c r="C90">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2362,10 +2416,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>20.06276744100781</v>
+        <v>18.91504028056734</v>
       </c>
       <c r="C91">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2373,10 +2427,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>20.05586465283503</v>
+        <v>18.89826175012521</v>
       </c>
       <c r="C92">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2384,10 +2438,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>20.04809542647923</v>
+        <v>18.89743622416205</v>
       </c>
       <c r="C93">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2395,10 +2449,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>20.0446926817414</v>
+        <v>18.87293445582533</v>
       </c>
       <c r="C94">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2406,10 +2460,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>20.04295277868975</v>
+        <v>18.87012266327641</v>
       </c>
       <c r="C95">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2417,10 +2471,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>20.04188534427887</v>
+        <v>18.86327866611472</v>
       </c>
       <c r="C96">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2428,10 +2482,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>20.03577856206406</v>
+        <v>18.85938080414976</v>
       </c>
       <c r="C97">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2439,10 +2493,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>20.03534223549842</v>
+        <v>18.84061139488028</v>
       </c>
       <c r="C98">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2450,10 +2504,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>20.03462260578032</v>
+        <v>18.8329372000753</v>
       </c>
       <c r="C99">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2461,10 +2515,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>20.03349833460772</v>
+        <v>18.82888624216669</v>
       </c>
       <c r="C100">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2472,10 +2526,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>20.03316601425805</v>
+        <v>18.79806041459221</v>
       </c>
       <c r="C101">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2483,10 +2537,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>20.03294400741343</v>
+        <v>18.76640469544271</v>
       </c>
       <c r="C102">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2494,10 +2548,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>20.03175893297962</v>
+        <v>18.75725549139607</v>
       </c>
       <c r="C103">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2505,10 +2559,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>20.03166778943318</v>
+        <v>18.74574625779366</v>
       </c>
       <c r="C104">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2516,10 +2570,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>20.03044131751837</v>
+        <v>18.72927022190974</v>
       </c>
       <c r="C105">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2527,10 +2581,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>20.02883423367171</v>
+        <v>18.71644555760927</v>
       </c>
       <c r="C106">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2538,10 +2592,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>20.02882444488758</v>
+        <v>18.70423482011698</v>
       </c>
       <c r="C107">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2549,10 +2603,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>20.0286723114072</v>
+        <v>18.69100224277244</v>
       </c>
       <c r="C108">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2560,10 +2614,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>20.02849889972254</v>
+        <v>18.64856913692493</v>
       </c>
       <c r="C109">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2571,10 +2625,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>20.02753804401053</v>
+        <v>18.64423885706227</v>
       </c>
       <c r="C110">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2582,10 +2636,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>20.02694116698303</v>
+        <v>18.64283237309686</v>
       </c>
       <c r="C111">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2593,10 +2647,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>20.02688519156183</v>
+        <v>18.64276125623504</v>
       </c>
       <c r="C112">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2604,10 +2658,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>20.02663719543834</v>
+        <v>18.64235857043948</v>
       </c>
       <c r="C113">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2615,10 +2669,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>20.02652811273025</v>
+        <v>18.64210223418462</v>
       </c>
       <c r="C114">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2626,10 +2680,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>20.02589182858326</v>
+        <v>18.64079688618421</v>
       </c>
       <c r="C115">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2637,10 +2691,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>20.02563705208027</v>
+        <v>18.63628759486713</v>
       </c>
       <c r="C116">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2648,10 +2702,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>20.02550769592522</v>
+        <v>18.63628047608003</v>
       </c>
       <c r="C117">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2659,10 +2713,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>20.02524799535826</v>
+        <v>18.63535268838365</v>
       </c>
       <c r="C118">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2670,10 +2724,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>20.02515720359842</v>
+        <v>18.63532461146505</v>
       </c>
       <c r="C119">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2681,10 +2735,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>20.02496275940215</v>
+        <v>18.63519088993234</v>
       </c>
       <c r="C120">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2692,10 +2746,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>20.02481729061425</v>
+        <v>18.63504793191212</v>
       </c>
       <c r="C121">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2703,10 +2757,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20.02474861695275</v>
+        <v>18.63439546307274</v>
       </c>
       <c r="C122">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2714,10 +2768,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>20.02432566269747</v>
+        <v>18.63423097173356</v>
       </c>
       <c r="C123">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2725,10 +2779,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>20.02421277802434</v>
+        <v>18.63150665716759</v>
       </c>
       <c r="C124">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2736,10 +2790,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>20.02412555489223</v>
+        <v>18.63126751937968</v>
       </c>
       <c r="C125">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2747,10 +2801,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>20.02408893370542</v>
+        <v>18.63110673016007</v>
       </c>
       <c r="C126">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2758,10 +2812,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>20.0240295615004</v>
+        <v>18.63105481014109</v>
       </c>
       <c r="C127">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2769,10 +2823,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>20.02391079139204</v>
+        <v>18.63089306217027</v>
       </c>
       <c r="C128">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2780,10 +2834,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>20.02387097515581</v>
+        <v>18.63065796619378</v>
       </c>
       <c r="C129">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2791,10 +2845,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>20.02384384743225</v>
+        <v>18.63063076544017</v>
       </c>
       <c r="C130">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2802,10 +2856,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>20.02371125163527</v>
+        <v>18.63058836192135</v>
       </c>
       <c r="C131">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2813,10 +2867,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>20.02358987672007</v>
+        <v>18.63058107635816</v>
       </c>
       <c r="C132">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2824,10 +2878,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>20.02354044010863</v>
+        <v>18.62999408386016</v>
       </c>
       <c r="C133">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2835,10 +2889,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>20.02354044010863</v>
+        <v>18.62966905173952</v>
       </c>
       <c r="C134">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2846,10 +2900,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>20.02336948458101</v>
+        <v>18.62942051028483</v>
       </c>
       <c r="C135">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2857,10 +2911,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>20.02327961773754</v>
+        <v>18.62937525070038</v>
       </c>
       <c r="C136">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2868,10 +2922,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>20.02316192703757</v>
+        <v>18.6293154956263</v>
       </c>
       <c r="C137">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2879,10 +2933,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>20.0230919182775</v>
+        <v>18.62921210282802</v>
       </c>
       <c r="C138">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2890,10 +2944,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>20.0230375652572</v>
+        <v>18.6291720104</v>
       </c>
       <c r="C139">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2901,10 +2955,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>20.02283708135133</v>
+        <v>18.62916968041739</v>
       </c>
       <c r="C140">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2912,10 +2966,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>20.02264418633299</v>
+        <v>18.62911167434603</v>
       </c>
       <c r="C141">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2923,10 +2977,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>20.02263930627361</v>
+        <v>18.6288930476971</v>
       </c>
       <c r="C142">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2934,10 +2988,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>20.02237215126543</v>
+        <v>18.62849872122933</v>
       </c>
       <c r="C143">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2945,10 +2999,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>20.02226527772542</v>
+        <v>18.6284929319941</v>
       </c>
       <c r="C144">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2956,10 +3010,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>20.02218628978094</v>
+        <v>18.62848498159737</v>
       </c>
       <c r="C145">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2967,10 +3021,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>20.02218264950348</v>
+        <v>18.62848351882602</v>
       </c>
       <c r="C146">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2978,10 +3032,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>20.02216302227058</v>
+        <v>18.62845430008909</v>
       </c>
       <c r="C147">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2989,10 +3043,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>20.02201823465573</v>
+        <v>18.6284208204223</v>
       </c>
       <c r="C148">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3000,10 +3054,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>20.02189103198084</v>
+        <v>18.62840264787978</v>
       </c>
       <c r="C149">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3011,10 +3065,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>20.02182373166728</v>
+        <v>18.62840264787978</v>
       </c>
       <c r="C150">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3022,10 +3076,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>20.02172067022758</v>
+        <v>18.62823742394805</v>
       </c>
       <c r="C151">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3033,10 +3087,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>20.02168230728372</v>
+        <v>18.62803776034525</v>
       </c>
       <c r="C152">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3044,10 +3098,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>20.02168230728372</v>
+        <v>18.62794786354293</v>
       </c>
       <c r="C153">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3055,10 +3109,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>20.02166814483759</v>
+        <v>18.62792807553025</v>
       </c>
       <c r="C154">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3066,10 +3120,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>20.02156419503816</v>
+        <v>18.62777105754888</v>
       </c>
       <c r="C155">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3077,10 +3131,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>20.02156419503816</v>
+        <v>18.62777042007747</v>
       </c>
       <c r="C156">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3088,10 +3142,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>20.02154346120357</v>
+        <v>18.62745000215871</v>
       </c>
       <c r="C157">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3099,10 +3153,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>20.02151542551779</v>
+        <v>18.62730506215615</v>
       </c>
       <c r="C158">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3110,10 +3164,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>20.02148807752006</v>
+        <v>18.6269181694189</v>
       </c>
       <c r="C159">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3121,10 +3175,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>20.02136190127772</v>
+        <v>18.62689223304606</v>
       </c>
       <c r="C160">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3132,10 +3186,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>20.0213615023882</v>
+        <v>18.62688889110136</v>
       </c>
       <c r="C161">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3143,10 +3197,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>20.0212321110474</v>
+        <v>18.62688889110136</v>
       </c>
       <c r="C162">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3154,10 +3208,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>20.02120587773432</v>
+        <v>18.62678564431326</v>
       </c>
       <c r="C163">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3165,10 +3219,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>20.02120267227067</v>
+        <v>18.62660892199046</v>
       </c>
       <c r="C164">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3176,10 +3230,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>20.02116533227147</v>
+        <v>18.6265515777458</v>
       </c>
       <c r="C165">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3187,10 +3241,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>20.02076319956595</v>
+        <v>18.62651552717438</v>
       </c>
       <c r="C166">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3198,10 +3252,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>20.02040976320782</v>
+        <v>18.62650300420323</v>
       </c>
       <c r="C167">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3209,10 +3263,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>20.02028859157808</v>
+        <v>18.62638664646801</v>
       </c>
       <c r="C168">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3220,10 +3274,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>20.02020675859601</v>
+        <v>18.62638398842921</v>
       </c>
       <c r="C169">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3231,10 +3285,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>20.02017040032512</v>
+        <v>18.62629094436779</v>
       </c>
       <c r="C170">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3242,10 +3296,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>20.02012474678257</v>
+        <v>18.62622561076217</v>
       </c>
       <c r="C171">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3253,10 +3307,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>20.01990220038292</v>
+        <v>18.62621237736436</v>
       </c>
       <c r="C172">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3264,10 +3318,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>20.01990201673654</v>
+        <v>18.62609945238256</v>
       </c>
       <c r="C173">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3275,10 +3329,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>20.01990201673654</v>
+        <v>18.62606768448929</v>
       </c>
       <c r="C174">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3286,10 +3340,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>20.01985183876739</v>
+        <v>18.62601433651853</v>
       </c>
       <c r="C175">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3297,10 +3351,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>20.01949110465997</v>
+        <v>18.62601120980699</v>
       </c>
       <c r="C176">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3308,10 +3362,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>20.01941616302026</v>
+        <v>18.62585828218024</v>
       </c>
       <c r="C177">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3319,10 +3373,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>20.01937096689831</v>
+        <v>18.6257698535186</v>
       </c>
       <c r="C178">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3330,10 +3384,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>20.01925546210784</v>
+        <v>18.62573782456579</v>
       </c>
       <c r="C179">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3341,10 +3395,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>20.01884518453308</v>
+        <v>18.62560998829139</v>
       </c>
       <c r="C180">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3352,10 +3406,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>20.01854328363336</v>
+        <v>18.62560408008892</v>
       </c>
       <c r="C181">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3363,10 +3417,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>20.01846959693025</v>
+        <v>18.62544252056123</v>
       </c>
       <c r="C182">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3374,10 +3428,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>20.01842806592651</v>
+        <v>18.6253208476964</v>
       </c>
       <c r="C183">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3385,10 +3439,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>20.01837579955577</v>
+        <v>18.62529203102775</v>
       </c>
       <c r="C184">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3396,10 +3450,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>20.01814814436448</v>
+        <v>18.62525754634871</v>
       </c>
       <c r="C185">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3407,10 +3461,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>20.01809187531236</v>
+        <v>18.62525146621315</v>
       </c>
       <c r="C186">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3418,10 +3472,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>20.01785502352516</v>
+        <v>18.62525146621315</v>
       </c>
       <c r="C187">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3429,10 +3483,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>20.01782468849527</v>
+        <v>18.62524939834763</v>
       </c>
       <c r="C188">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3440,10 +3494,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>20.0176056098255</v>
+        <v>18.62523794046127</v>
       </c>
       <c r="C189">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3451,10 +3505,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>20.01742599820739</v>
+        <v>18.62520719914702</v>
       </c>
       <c r="C190">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3462,10 +3516,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>20.0173214372426</v>
+        <v>18.62519419675639</v>
       </c>
       <c r="C191">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3473,10 +3527,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>20.0173214372426</v>
+        <v>18.62513592941718</v>
       </c>
       <c r="C192">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3484,10 +3538,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>20.01704750793704</v>
+        <v>18.62511064048996</v>
       </c>
       <c r="C193">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3495,10 +3549,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>20.01704750793704</v>
+        <v>18.62511035186438</v>
       </c>
       <c r="C194">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3506,10 +3560,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>20.01703327000019</v>
+        <v>18.62510421836795</v>
       </c>
       <c r="C195">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3517,10 +3571,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>20.01653116680595</v>
+        <v>18.62509780320782</v>
       </c>
       <c r="C196">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3528,10 +3582,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>20.01625654999835</v>
+        <v>18.62505420049113</v>
       </c>
       <c r="C197">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3539,10 +3593,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>20.01619260360199</v>
+        <v>18.62497700582957</v>
       </c>
       <c r="C198">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3550,10 +3604,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>20.01606260485335</v>
+        <v>18.62497138890253</v>
       </c>
       <c r="C199">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3561,10 +3615,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>20.01592253875888</v>
+        <v>18.6249675966857</v>
       </c>
       <c r="C200">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3572,10 +3626,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>20.01545582166978</v>
+        <v>18.62493842921277</v>
       </c>
       <c r="C201">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3583,10 +3637,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>20.01535976676315</v>
+        <v>18.62489020473527</v>
       </c>
       <c r="C202">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3594,10 +3648,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>20.01525204221241</v>
+        <v>18.62481840868167</v>
       </c>
       <c r="C203">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3605,10 +3659,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>20.01517960831548</v>
+        <v>18.62471765922411</v>
       </c>
       <c r="C204">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3616,10 +3670,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>20.01377419717735</v>
+        <v>18.62463943759943</v>
       </c>
       <c r="C205">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3627,10 +3681,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>20.01352843364965</v>
+        <v>18.62417422364269</v>
       </c>
       <c r="C206">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3638,10 +3692,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>20.01352843364965</v>
+        <v>18.62412978371793</v>
       </c>
       <c r="C207">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3649,10 +3703,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>20.01327472908856</v>
+        <v>18.62394604683367</v>
       </c>
       <c r="C208">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3660,10 +3714,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>20.01297951725087</v>
+        <v>18.62394365218395</v>
       </c>
       <c r="C209">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3671,10 +3725,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>20.01287934451985</v>
+        <v>18.62386466008257</v>
       </c>
       <c r="C210">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3682,10 +3736,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>20.01215277637045</v>
+        <v>18.62384490534502</v>
       </c>
       <c r="C211">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3693,10 +3747,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>20.01189622579218</v>
+        <v>18.62381347900553</v>
       </c>
       <c r="C212">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3704,10 +3758,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>20.01161162428268</v>
+        <v>18.62351904095187</v>
       </c>
       <c r="C213">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3715,10 +3769,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>20.01129069495012</v>
+        <v>18.62351904095187</v>
       </c>
       <c r="C214">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3726,10 +3780,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>20.01122525426653</v>
+        <v>18.62349488474077</v>
       </c>
       <c r="C215">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3737,10 +3791,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>20.0110307541859</v>
+        <v>18.6232675017454</v>
       </c>
       <c r="C216">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3748,10 +3802,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>20.01077718334187</v>
+        <v>18.62317410259455</v>
       </c>
       <c r="C217">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3759,10 +3813,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>20.01076422960836</v>
+        <v>18.62314337840463</v>
       </c>
       <c r="C218">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3770,10 +3824,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>20.0107107914349</v>
+        <v>18.62289635579209</v>
       </c>
       <c r="C219">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3781,10 +3835,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>20.01047828206764</v>
+        <v>18.62285562779606</v>
       </c>
       <c r="C220">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3792,10 +3846,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>20.01041302187886</v>
+        <v>18.62282089671884</v>
       </c>
       <c r="C221">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3803,10 +3857,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>20.00965650760904</v>
+        <v>18.62274236910077</v>
       </c>
       <c r="C222">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3814,10 +3868,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>20.0094535155526</v>
+        <v>18.62270903406095</v>
       </c>
       <c r="C223">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3825,10 +3879,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>20.00944911615613</v>
+        <v>18.62266870012316</v>
       </c>
       <c r="C224">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3836,10 +3890,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>20.00756541054072</v>
+        <v>18.62256540662113</v>
       </c>
       <c r="C225">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3847,10 +3901,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>20.00715938290516</v>
+        <v>18.62255634340929</v>
       </c>
       <c r="C226">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3858,10 +3912,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>20.00646197699517</v>
+        <v>18.62249036325889</v>
       </c>
       <c r="C227">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3869,10 +3923,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>20.00614509313033</v>
+        <v>18.62227849841686</v>
       </c>
       <c r="C228">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3880,10 +3934,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>20.00565258758672</v>
+        <v>18.62220422088834</v>
       </c>
       <c r="C229">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3891,10 +3945,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>20.00505484369897</v>
+        <v>18.62213618225825</v>
       </c>
       <c r="C230">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3902,10 +3956,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>20.00404957330417</v>
+        <v>18.62206500268049</v>
       </c>
       <c r="C231">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3913,10 +3967,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>20.00391519955267</v>
+        <v>18.62199529527673</v>
       </c>
       <c r="C232">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3924,10 +3978,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>20.00115478004518</v>
+        <v>18.62165427451014</v>
       </c>
       <c r="C233">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3935,10 +3989,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>19.97611467461194</v>
+        <v>18.62165427451014</v>
       </c>
       <c r="C234">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3946,10 +4000,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>19.94082226220927</v>
+        <v>18.62158908377696</v>
       </c>
       <c r="C235">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3957,10 +4011,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>19.90864046399528</v>
+        <v>18.62150611420249</v>
       </c>
       <c r="C236">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3968,10 +4022,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>19.90772574585732</v>
+        <v>18.62146625673628</v>
       </c>
       <c r="C237">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3979,10 +4033,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>19.89972795816565</v>
+        <v>18.62143549480776</v>
       </c>
       <c r="C238">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3990,10 +4044,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>19.89933825390201</v>
+        <v>18.6212229682323</v>
       </c>
       <c r="C239">
-        <v>6e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4001,10 +4055,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>19.87740709882375</v>
+        <v>18.6211572715298</v>
       </c>
       <c r="C240">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4012,10 +4066,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>19.87420095855243</v>
+        <v>18.62092807891842</v>
       </c>
       <c r="C241">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4023,10 +4077,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>19.85176470509249</v>
+        <v>18.62092807891842</v>
       </c>
       <c r="C242">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4034,10 +4088,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>19.84863594946544</v>
+        <v>18.62084486675704</v>
       </c>
       <c r="C243">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4045,10 +4099,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>19.84223974422238</v>
+        <v>18.62065941572024</v>
       </c>
       <c r="C244">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4056,10 +4110,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>19.74084119499852</v>
+        <v>18.61994092352866</v>
       </c>
       <c r="C245">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4067,10 +4121,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>19.7291225864408</v>
+        <v>18.6197359016597</v>
       </c>
       <c r="C246">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4078,10 +4132,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>19.72129894641186</v>
+        <v>18.61967998984494</v>
       </c>
       <c r="C247">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4089,10 +4143,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>19.67460442147905</v>
+        <v>18.61957390276324</v>
       </c>
       <c r="C248">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4100,10 +4154,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>19.67194538286364</v>
+        <v>18.61926677082684</v>
       </c>
       <c r="C249">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4111,10 +4165,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>19.62390466240205</v>
+        <v>18.61915426537928</v>
       </c>
       <c r="C250">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4122,10 +4176,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>19.58013734284079</v>
+        <v>18.61817724574138</v>
       </c>
       <c r="C251">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4133,10 +4187,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>19.55176418168572</v>
+        <v>18.61808524551838</v>
       </c>
       <c r="C252">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4144,10 +4198,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>19.51300461792299</v>
+        <v>18.61798019847135</v>
       </c>
       <c r="C253">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4155,10 +4209,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>19.50800633721935</v>
+        <v>18.61798019847135</v>
       </c>
       <c r="C254">
-        <v>6.999999999999999e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4166,10 +4220,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>19.47871803067715</v>
+        <v>18.61777648700346</v>
       </c>
       <c r="C255">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4177,10 +4231,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>19.41914555042075</v>
+        <v>18.61748476472457</v>
       </c>
       <c r="C256">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4188,10 +4242,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>19.41578986475896</v>
+        <v>18.61738907808115</v>
       </c>
       <c r="C257">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4199,10 +4253,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>19.3719835310349</v>
+        <v>18.61682613187337</v>
       </c>
       <c r="C258">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4210,10 +4264,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>19.34872076553368</v>
+        <v>18.61673500579614</v>
       </c>
       <c r="C259">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4221,10 +4275,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>19.32951252113239</v>
+        <v>18.61671955387075</v>
       </c>
       <c r="C260">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4232,10 +4286,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>19.2954961605461</v>
+        <v>18.61670906313535</v>
       </c>
       <c r="C261">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4243,10 +4297,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>19.28769672864832</v>
+        <v>18.61657655723871</v>
       </c>
       <c r="C262">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4254,10 +4308,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>19.26032087670796</v>
+        <v>18.61624444370788</v>
       </c>
       <c r="C263">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4265,10 +4319,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>19.25779845109984</v>
+        <v>18.61607906516781</v>
       </c>
       <c r="C264">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4276,10 +4330,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>19.23238761208553</v>
+        <v>18.61592843167437</v>
       </c>
       <c r="C265">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4287,10 +4341,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>19.18857446754289</v>
+        <v>18.61590986729773</v>
       </c>
       <c r="C266">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4298,10 +4352,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>19.1307087633699</v>
+        <v>18.6157984440695</v>
       </c>
       <c r="C267">
-        <v>8.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4309,10 +4363,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>19.05138757709926</v>
+        <v>18.6156005725431</v>
       </c>
       <c r="C268">
-        <v>9.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4320,10 +4374,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>17.95238495706605</v>
+        <v>18.6155451521312</v>
       </c>
       <c r="C269">
-        <v>0.00013</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4331,10 +4385,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>17.00671604903797</v>
+        <v>18.61545746599354</v>
       </c>
       <c r="C270">
-        <v>0.00018</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4342,10 +4396,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>17.00294619440049</v>
+        <v>18.61525792430279</v>
       </c>
       <c r="C271">
-        <v>0.00018</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4353,10 +4407,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>16.98182333155724</v>
+        <v>18.61504241286768</v>
       </c>
       <c r="C272">
-        <v>0.00018</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4364,10 +4418,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>16.36679018729813</v>
+        <v>18.61498835951943</v>
       </c>
       <c r="C273">
-        <v>0.00023</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4375,10 +4429,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>16.16897040722865</v>
+        <v>18.61339118419802</v>
       </c>
       <c r="C274">
-        <v>0.00025</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4386,10 +4440,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>16.0935188196431</v>
+        <v>18.6120638376062</v>
       </c>
       <c r="C275">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4397,10 +4451,10 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>16.08983424585467</v>
+        <v>18.6120295453627</v>
       </c>
       <c r="C276">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4408,10 +4462,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>16.0892322341015</v>
+        <v>18.61192994151757</v>
       </c>
       <c r="C277">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4419,10 +4473,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>16.088039258285</v>
+        <v>18.610802737301</v>
       </c>
       <c r="C278">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4430,10 +4484,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>16.0876188027972</v>
+        <v>18.61047445975453</v>
       </c>
       <c r="C279">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4441,10 +4495,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>16.08722793770521</v>
+        <v>18.61036754440083</v>
       </c>
       <c r="C280">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4452,10 +4506,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>16.08602648151067</v>
+        <v>18.60920616493733</v>
       </c>
       <c r="C281">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4463,10 +4517,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>16.08522579950428</v>
+        <v>18.60918320458483</v>
       </c>
       <c r="C282">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4474,10 +4528,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>16.08520494775059</v>
+        <v>18.60894771257026</v>
       </c>
       <c r="C283">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4485,10 +4539,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>16.08519965006634</v>
+        <v>18.60893591950381</v>
       </c>
       <c r="C284">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4496,10 +4550,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>16.08424267273869</v>
+        <v>18.60500022993985</v>
       </c>
       <c r="C285">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4507,10 +4561,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>16.07908732113882</v>
+        <v>18.60480732982863</v>
       </c>
       <c r="C286">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4518,10 +4572,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>16.07891773106533</v>
+        <v>18.60402063197967</v>
       </c>
       <c r="C287">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4529,10 +4583,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>16.07844728671986</v>
+        <v>18.60107485024614</v>
       </c>
       <c r="C288">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4540,10 +4594,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>16.07741158133324</v>
+        <v>18.59957010054807</v>
       </c>
       <c r="C289">
-        <v>0.00026</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4551,10 +4605,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>16.07554514056204</v>
+        <v>18.59607548950412</v>
       </c>
       <c r="C290">
-        <v>0.00026</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4562,10 +4616,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>16.0731126312207</v>
+        <v>18.59562683453379</v>
       </c>
       <c r="C291">
-        <v>0.00026</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4573,10 +4627,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>16.07188139938394</v>
+        <v>18.58984931243335</v>
       </c>
       <c r="C292">
-        <v>0.00026</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4584,10 +4638,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>16.00507652764168</v>
+        <v>18.58862695870042</v>
       </c>
       <c r="C293">
-        <v>0.00027</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4595,10 +4649,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>15.69052601956223</v>
+        <v>18.58699322384808</v>
       </c>
       <c r="C294">
-        <v>0.0003</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4606,10 +4660,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>15.63814483951745</v>
+        <v>18.58515730399324</v>
       </c>
       <c r="C295">
-        <v>0.0003</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4617,10 +4671,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>14.63099589736544</v>
+        <v>18.58430366521129</v>
       </c>
       <c r="C296">
-        <v>0.00045</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4628,10 +4682,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>13.98744797608365</v>
+        <v>18.58119860967154</v>
       </c>
       <c r="C297">
-        <v>0.00058</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4639,10 +4693,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>13.38448761381669</v>
+        <v>18.57977088575358</v>
       </c>
       <c r="C298">
-        <v>0.00073</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4650,10 +4704,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>13.38392429045895</v>
+        <v>18.57226610232092</v>
       </c>
       <c r="C299">
-        <v>0.00073</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4661,10 +4715,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>13.2167218130191</v>
+        <v>18.57188366912439</v>
       </c>
       <c r="C300">
-        <v>0.00078</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4672,10 +4726,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>13.2167218130191</v>
+        <v>18.56137749879883</v>
       </c>
       <c r="C301">
-        <v>0.00078</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4683,10 +4737,10 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>13.11155134322242</v>
+        <v>18.55295224110218</v>
       </c>
       <c r="C302">
-        <v>0.00082</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4694,10 +4748,10 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>12.91632985805396</v>
+        <v>18.52989580277434</v>
       </c>
       <c r="C303">
-        <v>0.00088</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4705,10 +4759,10 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>12.88378655881329</v>
+        <v>18.52775301172914</v>
       </c>
       <c r="C304">
-        <v>0.0008899999999999999</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4716,10 +4770,10 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>12.88116115763486</v>
+        <v>18.52540331760909</v>
       </c>
       <c r="C305">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4727,10 +4781,10 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>12.88042396993898</v>
+        <v>18.50384808934228</v>
       </c>
       <c r="C306">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4738,10 +4792,10 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>12.88019721560749</v>
+        <v>18.46638709228142</v>
       </c>
       <c r="C307">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4749,10 +4803,10 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>12.87999945153605</v>
+        <v>18.44702996361133</v>
       </c>
       <c r="C308">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4760,10 +4814,10 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>12.87381081068695</v>
+        <v>18.43657765414995</v>
       </c>
       <c r="C309">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4771,10 +4825,10 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>12.87319312838625</v>
+        <v>18.43275185855789</v>
       </c>
       <c r="C310">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4782,10 +4836,10 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>12.8728555366186</v>
+        <v>18.42172288645952</v>
       </c>
       <c r="C311">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4793,10 +4847,10 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>12.87258792533947</v>
+        <v>18.42018489236207</v>
       </c>
       <c r="C312">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4804,10 +4858,10 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>12.8723709149613</v>
+        <v>18.40931505520339</v>
       </c>
       <c r="C313">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4815,10 +4869,10 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>12.87100850109904</v>
+        <v>18.38423062935562</v>
       </c>
       <c r="C314">
-        <v>0.0009</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4826,10 +4880,10 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>12.87038121659007</v>
+        <v>18.29285006185039</v>
       </c>
       <c r="C315">
-        <v>0.0009</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4837,10 +4891,10 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>12.87035467871799</v>
+        <v>18.27341375304792</v>
       </c>
       <c r="C316">
-        <v>0.0009</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4848,10 +4902,10 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>12.87029122682439</v>
+        <v>18.242724927993</v>
       </c>
       <c r="C317">
-        <v>0.0009</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4859,10 +4913,10 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>12.86950852117828</v>
+        <v>18.19046862685287</v>
       </c>
       <c r="C318">
-        <v>0.0009</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4870,10 +4924,10 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>12.86909604841969</v>
+        <v>18.15319339472866</v>
       </c>
       <c r="C319">
-        <v>0.0009</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4881,10 +4935,10 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>12.86832070241828</v>
+        <v>18.11581791944872</v>
       </c>
       <c r="C320">
-        <v>0.0009</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4892,10 +4946,10 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>12.86806225909986</v>
+        <v>18.08154963805646</v>
       </c>
       <c r="C321">
-        <v>0.0009</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4903,10 +4957,10 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>12.86700100873809</v>
+        <v>18.02719808459317</v>
       </c>
       <c r="C322">
-        <v>0.0009</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4914,10 +4968,10 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>12.8660638426708</v>
+        <v>18.02470826582949</v>
       </c>
       <c r="C323">
-        <v>0.0009</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4925,10 +4979,10 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>12.84396951599976</v>
+        <v>18.02243169728299</v>
       </c>
       <c r="C324">
-        <v>0.00091</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4936,10 +4990,10 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>12.69522123796011</v>
+        <v>18.01703847032812</v>
       </c>
       <c r="C325">
-        <v>0.0009700000000000001</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4947,10 +5001,10 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>10.64514742085569</v>
+        <v>17.97976446138466</v>
       </c>
       <c r="C326">
-        <v>0.00226</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4958,10 +5012,10 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>9.388115764754595</v>
+        <v>17.97292872762984</v>
       </c>
       <c r="C327">
-        <v>0.0039</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4969,10 +5023,10 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>8.101747213038923</v>
+        <v>17.97282465053186</v>
       </c>
       <c r="C328">
-        <v>0.00694</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4980,10 +5034,10 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>8.101747213038923</v>
+        <v>17.96821246107026</v>
       </c>
       <c r="C329">
-        <v>0.00694</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4991,10 +5045,208 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>7.565882109914775</v>
+        <v>17.95549253211869</v>
       </c>
       <c r="C330">
-        <v>0.00889</v>
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>17.9462233881447</v>
+      </c>
+      <c r="C331">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>17.90299235577858</v>
+      </c>
+      <c r="C332">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>17.88954772052044</v>
+      </c>
+      <c r="C333">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>17.85776930263706</v>
+      </c>
+      <c r="C334">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>17.80860182445925</v>
+      </c>
+      <c r="C335">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>17.7534888456245</v>
+      </c>
+      <c r="C336">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>16.79859819833913</v>
+      </c>
+      <c r="C337">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>16.79589866185741</v>
+      </c>
+      <c r="C338">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>16.67980073847612</v>
+      </c>
+      <c r="C339">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>16.55511729666755</v>
+      </c>
+      <c r="C340">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>16.55427787193553</v>
+      </c>
+      <c r="C341">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>15.89196542574436</v>
+      </c>
+      <c r="C342">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>15.38054284422255</v>
+      </c>
+      <c r="C343">
+        <v>0.00037</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>14.9749355364038</v>
+      </c>
+      <c r="C344">
+        <v>0.00043</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>13.48322600412073</v>
+      </c>
+      <c r="C345">
+        <v>0.00076</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>11.74910349567449</v>
+      </c>
+      <c r="C346">
+        <v>0.00151</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>9.186540362483283</v>
+      </c>
+      <c r="C347">
+        <v>0.00443</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.833264980245098</v>
+      </c>
+      <c r="C348">
+        <v>0.0081</v>
       </c>
     </row>
   </sheetData>
